--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2940" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="2940" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -38,6 +38,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -96,7 +102,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Prime Numbers: 1-1,000,000</a:t>
+              <a:t>Prime Numbers: 1-1,000,000 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>(OSX 10.6 - 2.93</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Intel Core 2 Duo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -127,10 +150,10 @@
                   <c:v>Objeck (Interpreted)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Objeck (JIT)</c:v>
+                  <c:v>Java 1.6 (JIT)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Java 1.6 (JIT)</c:v>
+                  <c:v>Objeck (JIT)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>g++ 4.2 (-02)</c:v>
@@ -145,39 +168,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18.88205</c:v>
+                  <c:v>21.064175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93206224999999998</c:v>
+                  <c:v>0.90075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90074999999999994</c:v>
+                  <c:v>0.8684915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38547824999999997</c:v>
+                  <c:v>0.38547825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75283072"/>
-        <c:axId val="75363840"/>
+        <c:axId val="541783864"/>
+        <c:axId val="541787192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75283072"/>
+        <c:axId val="541783864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75363840"/>
+        <c:crossAx val="541787192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75363840"/>
+        <c:axId val="541787192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -185,14 +208,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75283072"/>
+        <c:crossAx val="541783864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.832484620369466"/>
+          <c:y val="0.491330259193288"/>
+          <c:w val="0.141272803131852"/>
+          <c:h val="0.130624427760483"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -210,14 +242,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -558,19 +590,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -578,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -589,13 +620,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>18.883900000000001</v>
+        <v>21.063600000000001</v>
       </c>
       <c r="B2">
-        <v>0.93162100000000003</v>
+        <v>0.877</v>
       </c>
       <c r="C2">
-        <v>0.877</v>
+        <v>0.86802199999999996</v>
       </c>
       <c r="D2">
         <v>0.38568599999999997</v>
@@ -603,13 +634,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>18.8809</v>
+        <v>21.0642</v>
       </c>
       <c r="B3">
-        <v>0.92942000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.88300000000000001</v>
+        <v>0.86253899999999994</v>
       </c>
       <c r="D3">
         <v>0.38621100000000003</v>
@@ -617,13 +648,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>18.881499999999999</v>
+        <v>21.0655</v>
       </c>
       <c r="B4">
-        <v>0.93776000000000004</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C4">
-        <v>0.93100000000000005</v>
+        <v>0.87425799999999998</v>
       </c>
       <c r="D4">
         <v>0.38455899999999998</v>
@@ -631,13 +662,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>18.881900000000002</v>
+        <v>21.063400000000001</v>
       </c>
       <c r="B5">
-        <v>0.92944800000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C5">
-        <v>0.91200000000000003</v>
+        <v>0.869147</v>
       </c>
       <c r="D5">
         <v>0.38545699999999999</v>
@@ -646,30 +677,25 @@
     <row r="6" spans="1:4">
       <c r="A6">
         <f>AVERAGE(A2:A5)</f>
-        <v>18.88205</v>
+        <v>21.064174999999999</v>
       </c>
       <c r="B6">
         <f>AVERAGE(B2:B5)</f>
-        <v>0.93206224999999998</v>
+        <v>0.90074999999999994</v>
       </c>
       <c r="C6">
         <f>AVERAGE(C2:C5)</f>
-        <v>0.90074999999999994</v>
+        <v>0.86849149999999997</v>
       </c>
       <c r="D6">
         <f>AVERAGE(D2:D5)</f>
         <v>0.38547824999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14">
-        <f>1-D6/A6</f>
-        <v>0.97958493648729883</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -38,12 +38,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -168,7 +162,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.064175</c:v>
+                  <c:v>16.592825</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.90075</c:v>
@@ -183,24 +177,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="541783864"/>
-        <c:axId val="541787192"/>
+        <c:axId val="562690744"/>
+        <c:axId val="562645064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541783864"/>
+        <c:axId val="562690744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541787192"/>
+        <c:crossAx val="562645064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541787192"/>
+        <c:axId val="562645064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -208,7 +202,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541783864"/>
+        <c:crossAx val="562690744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,7 +588,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -620,7 +614,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>21.063600000000001</v>
+        <v>16.5412</v>
       </c>
       <c r="B2">
         <v>0.877</v>
@@ -634,7 +628,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>21.0642</v>
+        <v>16.723400000000002</v>
       </c>
       <c r="B3">
         <v>0.88300000000000001</v>
@@ -648,7 +642,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>21.0655</v>
+        <v>16.598600000000001</v>
       </c>
       <c r="B4">
         <v>0.93100000000000005</v>
@@ -662,7 +656,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>21.063400000000001</v>
+        <v>16.508099999999999</v>
       </c>
       <c r="B5">
         <v>0.91200000000000003</v>
@@ -677,7 +671,7 @@
     <row r="6" spans="1:4">
       <c r="A6">
         <f>AVERAGE(A2:A5)</f>
-        <v>21.064174999999999</v>
+        <v>16.592825000000001</v>
       </c>
       <c r="B6">
         <f>AVERAGE(B2:B5)</f>
@@ -693,9 +687,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -177,24 +177,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="562690744"/>
-        <c:axId val="562645064"/>
+        <c:axId val="546246792"/>
+        <c:axId val="546238712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562690744"/>
+        <c:axId val="546246792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562645064"/>
+        <c:crossAx val="546238712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562645064"/>
+        <c:axId val="546238712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -202,7 +202,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562690744"/>
+        <c:crossAx val="546246792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -234,16 +234,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -686,8 +686,13 @@
         <v>0.38547824999999997</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f>ABS(C6/A6-1)</f>
+        <v>0.947658611478154</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -168,7 +168,7 @@
                   <c:v>0.90075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8684915</c:v>
+                  <c:v>0.478394</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.38547825</c:v>
@@ -177,24 +177,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="546246792"/>
-        <c:axId val="546238712"/>
+        <c:axId val="565214840"/>
+        <c:axId val="565203480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="546246792"/>
+        <c:axId val="565214840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546238712"/>
+        <c:crossAx val="565203480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546238712"/>
+        <c:axId val="565203480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -202,7 +202,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546246792"/>
+        <c:crossAx val="565214840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +588,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -620,7 +620,7 @@
         <v>0.877</v>
       </c>
       <c r="C2">
-        <v>0.86802199999999996</v>
+        <v>0.47585300000000003</v>
       </c>
       <c r="D2">
         <v>0.38568599999999997</v>
@@ -634,7 +634,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.86253899999999994</v>
+        <v>0.48208499999999999</v>
       </c>
       <c r="D3">
         <v>0.38621100000000003</v>
@@ -648,7 +648,7 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="C4">
-        <v>0.87425799999999998</v>
+        <v>0.47908600000000001</v>
       </c>
       <c r="D4">
         <v>0.38455899999999998</v>
@@ -662,7 +662,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="C5">
-        <v>0.869147</v>
+        <v>0.47655199999999998</v>
       </c>
       <c r="D5">
         <v>0.38545699999999999</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="C6">
         <f>AVERAGE(C2:C5)</f>
-        <v>0.86849149999999997</v>
+        <v>0.47839399999999999</v>
       </c>
       <c r="D6">
         <f>AVERAGE(D2:D5)</f>
@@ -689,10 +689,11 @@
     <row r="8" spans="1:4">
       <c r="A8">
         <f>ABS(C6/A6-1)</f>
-        <v>0.947658611478154</v>
+        <v>0.97116862258235115</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2940" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,31 +21,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>g++ 4.2 (-02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Perl</t>
   </si>
   <si>
-    <t>Java 1.6 (JIT)</t>
+    <t>Objeck</t>
   </si>
   <si>
-    <t>Objeck (Interpreted)</t>
+    <t>Objeck (no-JIT)</t>
   </si>
   <si>
-    <t>Objeck (JIT)</t>
+    <t>Java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,25 +79,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="19"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -96,135 +142,128 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Prime Numbers: 1-1,000,000 </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>(OSX 10.6 - 2.93</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> Intel Core 2 Duo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>)</a:t>
+              <a:t>Prime Number (1 - 1,000,000)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time in Secs</c:v>
+            <c:v>Time Second(s)</c:v>
           </c:tx>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Objeck (Interpreted)</c:v>
+                  <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Java 1.6 (JIT)</c:v>
+                  <c:v>Objeck</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Objeck (JIT)</c:v>
+                  <c:v>Objeck (no-JIT)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>g++ 4.2 (-02)</c:v>
+                  <c:v>Perl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$D$6</c:f>
+              <c:f>Sheet1!$A$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16.592825</c:v>
+                  <c:v>1.081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90075</c:v>
+                  <c:v>1.405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.478394</c:v>
+                  <c:v>23.61066666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38547825</c:v>
+                  <c:v>23.93433333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="565214840"/>
-        <c:axId val="565203480"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="677476232"/>
+        <c:axId val="677670616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="565214840"/>
+        <c:axId val="677476232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565203480"/>
+        <c:crossAx val="677670616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="565203480"/>
+        <c:axId val="677670616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565214840"/>
+        <c:crossAx val="677476232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.832484620369466"/>
-          <c:y val="0.491330259193288"/>
-          <c:w val="0.141272803131852"/>
-          <c:h val="0.130624427760483"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -235,15 +274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>69851</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -340,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,6 +414,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,29 +625,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -614,91 +655,70 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>16.5412</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="B2">
-        <v>0.877</v>
+        <v>1.413</v>
       </c>
       <c r="C2">
-        <v>0.47585300000000003</v>
+        <v>24.097999999999999</v>
       </c>
       <c r="D2">
-        <v>0.38568599999999997</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>16.723400000000002</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="B3">
-        <v>0.88300000000000001</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="C3">
-        <v>0.48208499999999999</v>
+        <v>23.390999999999998</v>
       </c>
       <c r="D3">
-        <v>0.38621100000000003</v>
+        <v>24.626999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>16.598600000000001</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="B4">
-        <v>0.93100000000000005</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="C4">
-        <v>0.47908600000000001</v>
+        <v>23.343</v>
       </c>
       <c r="D4">
-        <v>0.38455899999999998</v>
+        <v>22.905999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>16.508099999999999</v>
+        <f>AVERAGE(A2:A4)</f>
+        <v>1.0810000000000002</v>
       </c>
       <c r="B5">
-        <v>0.91200000000000003</v>
+        <f>AVERAGE(B2:B4)</f>
+        <v>1.405</v>
       </c>
       <c r="C5">
-        <v>0.47655199999999998</v>
+        <f>AVERAGE(C2:C4)</f>
+        <v>23.610666666666663</v>
       </c>
       <c r="D5">
-        <v>0.38545699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <f>AVERAGE(A2:A5)</f>
-        <v>16.592825000000001</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(B2:B5)</f>
-        <v>0.90074999999999994</v>
-      </c>
-      <c r="C6">
-        <f>AVERAGE(C2:C5)</f>
-        <v>0.47839399999999999</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE(D2:D5)</f>
-        <v>0.38547824999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <f>ABS(C6/A6-1)</f>
-        <v>0.97116862258235115</v>
+        <f>AVERAGE(D2:D4)</f>
+        <v>23.934333333333331</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Perl</t>
   </si>
   <si>
     <t>Objeck</t>
-  </si>
-  <si>
-    <t>Objeck (no-JIT)</t>
   </si>
   <si>
     <t>Java</t>
@@ -166,9 +163,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:f>Sheet1!$A$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Java</c:v>
                 </c:pt>
@@ -176,9 +173,6 @@
                   <c:v>Objeck</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Objeck (no-JIT)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Perl</c:v>
                 </c:pt>
               </c:strCache>
@@ -186,10 +180,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$D$5</c:f>
+              <c:f>Sheet1!$A$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.081</c:v>
                 </c:pt>
@@ -197,9 +191,6 @@
                   <c:v>1.405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.61066666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>23.93433333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -215,11 +206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="677476232"/>
-        <c:axId val="677670616"/>
+        <c:axId val="525024792"/>
+        <c:axId val="525027784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="677476232"/>
+        <c:axId val="525024792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -228,7 +219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677670616"/>
+        <c:crossAx val="525027784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -236,7 +227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="677670616"/>
+        <c:axId val="525027784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -247,7 +238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677476232"/>
+        <c:crossAx val="525024792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -273,13 +264,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -626,34 +617,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1.2070000000000001</v>
       </c>
@@ -661,13 +648,10 @@
         <v>1.413</v>
       </c>
       <c r="C2">
-        <v>24.097999999999999</v>
-      </c>
-      <c r="D2">
         <v>24.27</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1.0169999999999999</v>
       </c>
@@ -675,13 +659,10 @@
         <v>1.4079999999999999</v>
       </c>
       <c r="C3">
-        <v>23.390999999999998</v>
-      </c>
-      <c r="D3">
         <v>24.626999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1.0189999999999999</v>
       </c>
@@ -689,13 +670,10 @@
         <v>1.3939999999999999</v>
       </c>
       <c r="C4">
-        <v>23.343</v>
-      </c>
-      <c r="D4">
         <v>22.905999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>AVERAGE(A2:A4)</f>
         <v>1.0810000000000002</v>
@@ -706,10 +684,6 @@
       </c>
       <c r="C5">
         <f>AVERAGE(C2:C4)</f>
-        <v>23.610666666666663</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(D2:D4)</f>
         <v>23.934333333333331</v>
       </c>
     </row>

--- a/wip/timming/times.xlsx
+++ b/wip/timming/times.xlsx
@@ -121,10 +121,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="117"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="17"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -139,7 +139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Prime Number (1 - 1,000,000)</a:t>
+              <a:t>Prime Numbers (1 - 1,000,000)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -149,7 +149,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0833240972940743"/>
+          <c:y val="0.178798586572438"/>
+          <c:w val="0.714153236413377"/>
+          <c:h val="0.749305250271278"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -620,7 +630,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
